--- a/medicine/Pharmacie/Bêta-2-mimétique/Bêta-2-mimétique.xlsx
+++ b/medicine/Pharmacie/Bêta-2-mimétique/Bêta-2-mimétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-2-mim%C3%A9tique</t>
+          <t>Bêta-2-mimétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe des bêta-2-mimétiques[1] ou Bêta-2-stimulants (ou agonistes β-2 adrénergiques) fait partie des bronchodilatateurs, médicament destiné à traiter ou à prévenir la bronchoconstriction ou bronchospasme, dans une maladie telle que l'asthme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe des bêta-2-mimétiques ou Bêta-2-stimulants (ou agonistes β-2 adrénergiques) fait partie des bronchodilatateurs, médicament destiné à traiter ou à prévenir la bronchoconstriction ou bronchospasme, dans une maladie telle que l'asthme.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%AAta-2-mim%C3%A9tique</t>
+          <t>Bêta-2-mimétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette classe comprend des médicaments à action rapide tels que : 
 le salbutamol (Albutérol, Ventoline) ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%AAta-2-mim%C3%A9tique</t>
+          <t>Bêta-2-mimétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bêta-2-mimétiques ne sont plus préconisés dans les cas de menace d'accouchement prématuré[2], afin de faire cesser les contractions utérines, en effet il existe des contre-indications cardiaques[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bêta-2-mimétiques ne sont plus préconisés dans les cas de menace d'accouchement prématuré, afin de faire cesser les contractions utérines, en effet il existe des contre-indications cardiaques. 
 </t>
         </is>
       </c>
